--- a/doc/backlog.xlsx
+++ b/doc/backlog.xlsx
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27">
